--- a/举报网站工作计划.xlsx
+++ b/举报网站工作计划.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="总体计划" sheetId="1" r:id="rId1"/>
+    <sheet name="20160220" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>举报人</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -285,6 +286,46 @@
   </si>
   <si>
     <t>test,service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司登录和举报信息相关的controller、service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息设置模块的service以及测试案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息设置模块的controller,dao,mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司登录和举报信息相关页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息设置模板的相关页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合公司登录和举报信息的前后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合客户设置模板的前后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合前后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司登录和举报信息相关的dao,mapping,测试案例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -369,16 +410,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -705,35 +753,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
@@ -743,23 +791,23 @@
       <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>20160201</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <v>20160219</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -777,13 +825,13 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
@@ -799,13 +847,13 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
@@ -821,13 +869,13 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="6" t="s">
         <v>56</v>
       </c>
@@ -843,15 +891,15 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="6" t="s">
         <v>56</v>
       </c>
@@ -867,13 +915,13 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="6" t="s">
         <v>56</v>
       </c>
@@ -889,19 +937,19 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>20160220</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="9">
         <v>20160226</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -917,13 +965,13 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="6" t="s">
         <v>56</v>
       </c>
@@ -937,13 +985,13 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -951,15 +999,15 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="6" t="s">
         <v>56</v>
       </c>
@@ -973,13 +1021,13 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="6" t="s">
         <v>60</v>
       </c>
@@ -993,15 +1041,15 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="6" t="s">
         <v>67</v>
       </c>
@@ -1015,13 +1063,13 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="6" t="s">
         <v>64</v>
       </c>
@@ -1035,19 +1083,19 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>20160227</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="9">
         <v>20160305</v>
       </c>
       <c r="F16" s="6"/>
@@ -1057,13 +1105,13 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1071,13 +1119,13 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1085,13 +1133,13 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1099,13 +1147,13 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1113,15 +1161,15 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1129,13 +1177,13 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1143,15 +1191,15 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1159,13 +1207,13 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1173,15 +1221,15 @@
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1189,13 +1237,13 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1203,19 +1251,19 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="9">
         <v>20160306</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="9">
         <v>20160312</v>
       </c>
       <c r="F27" s="6"/>
@@ -1225,13 +1273,13 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1239,13 +1287,13 @@
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1253,15 +1301,15 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1269,17 +1317,17 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1287,13 +1335,13 @@
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1301,15 +1349,15 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1317,13 +1365,13 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1332,16 +1380,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
@@ -1358,11 +1401,201 @@
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20160224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20160225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>20160226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/举报网站工作计划.xlsx
+++ b/举报网站工作计划.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总体计划" sheetId="1" r:id="rId1"/>
     <sheet name="20160220" sheetId="2" r:id="rId2"/>
+    <sheet name="20160229" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="173">
   <si>
     <t>举报人</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -297,43 +298,417 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>客户信息设置模块的controller,dao,mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司登录和举报信息相关页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息设置模板的相关页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合公司登录和举报信息的前后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合客户设置模板的前后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合前后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司登录和举报信息相关的dao,mapping,测试案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>客户信息设置模块的service以及测试案例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户信息设置模块的controller,dao,mapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司登录和举报信息相关页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户信息设置模板的相关页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合公司登录和举报信息的前后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合客户设置模板的前后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合前后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司登录和举报信息相关的dao,mapping,测试案例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>具体工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体细则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户并绑定公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从页面获取用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入用户信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面数据验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有公司信息，供前台页面添加用户时选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取公司信息，封装后供Controller调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取公司信息，封装后供Service调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试添加用户信息业务流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试获取公司信息业务流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据查询条件展示用户信息的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面数据验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从页面获取查询条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据查询条件调取相应数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据传入参数获取用户信息列表,封装后供Controller调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据传入参数获取用户信息列表,封装后供Service调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试根据条件查询用户列表功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用所选用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用复选框选择需要停用的用户，并传递给后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取前台传递的用户ID，封装成集合后传递给后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取需要变更状态的用户ID列表，批量更新这些用户的状态为停用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试批量更新用户用户状态的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将需要重置密码的用户ID传递给后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取需要重置密码的用户ID，调用Service层的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据传递的用户ID，重置密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户ID，修改用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户ID,修改用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试更新用户信息功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用复选框选择需要销户的用户，并传递给后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取需要变更状态的用户ID列表，批量更新这些用户的状态为销户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试批量更新用户用户状态的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用复选框选择需要恢复的已销户用户，并传递给后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取前台传递的用户ID，封装成集合后传递给后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取需要变更状态的用户ID列表，批量更新这些用户的状态为正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在以上功能中都需要记录日志，记录操作内容、时间、操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试日志添加功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据时间、操作人、操作动作等条件查询日志的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从页面获取传递查询条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据条件查询相关日志数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取条件，调用查询方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试日志查看功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加日志记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志查看功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以复用之前公司查看举报信息的模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台页面用户身份验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月1日上午</t>
+  </si>
+  <si>
+    <t>3月1日上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月1日上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月2日上午</t>
+  </si>
+  <si>
+    <t>3月5日上午</t>
+  </si>
+  <si>
+    <t>前后台整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月1日下午</t>
+  </si>
+  <si>
+    <t>3月1日下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月2日上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月2日下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月3日上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月3日下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月4日上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月4日下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月7日下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月4日下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月4日下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月5日上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月12日下午</t>
+  </si>
+  <si>
+    <t>3月12日下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细则待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体组员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔剑</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +730,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -364,7 +748,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -387,11 +771,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -409,6 +830,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -421,12 +849,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,7 +1184,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C15"/>
+      <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -753,35 +1202,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
@@ -791,23 +1240,23 @@
       <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="12">
         <v>20160201</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="12">
         <v>20160219</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -825,13 +1274,13 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
@@ -847,13 +1296,13 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
@@ -869,13 +1318,13 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="6" t="s">
         <v>56</v>
       </c>
@@ -891,15 +1340,15 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="6" t="s">
         <v>56</v>
       </c>
@@ -915,13 +1364,13 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="6" t="s">
         <v>56</v>
       </c>
@@ -937,19 +1386,19 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="12">
         <v>20160220</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="12">
         <v>20160226</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -965,13 +1414,13 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="6" t="s">
         <v>56</v>
       </c>
@@ -985,13 +1434,13 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -999,15 +1448,15 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="6" t="s">
         <v>56</v>
       </c>
@@ -1021,13 +1470,13 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="6" t="s">
         <v>60</v>
       </c>
@@ -1041,15 +1490,15 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="6" t="s">
         <v>67</v>
       </c>
@@ -1063,13 +1512,13 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="6" t="s">
         <v>64</v>
       </c>
@@ -1083,19 +1532,19 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="12">
         <v>20160227</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="12">
         <v>20160305</v>
       </c>
       <c r="F16" s="6"/>
@@ -1105,13 +1554,13 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1119,13 +1568,13 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1133,13 +1582,13 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1147,13 +1596,13 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1161,15 +1610,15 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1177,13 +1626,13 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1191,15 +1640,15 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1207,13 +1656,13 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1221,15 +1670,15 @@
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1237,13 +1686,13 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1251,19 +1700,19 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="12">
         <v>20160306</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="12">
         <v>20160312</v>
       </c>
       <c r="F27" s="6"/>
@@ -1273,13 +1722,13 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1287,13 +1736,13 @@
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1301,15 +1750,15 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1317,17 +1766,17 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1335,13 +1784,13 @@
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1349,15 +1798,15 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1365,13 +1814,13 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1422,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1453,10 +1902,10 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1464,13 +1913,13 @@
         <v>20160225</v>
       </c>
       <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1478,118 +1927,118 @@
         <v>20160226</v>
       </c>
       <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1601,4 +2050,1147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="19"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="19"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="19"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="19"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="19"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="19"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="19"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="19"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="19"/>
+      <c r="B30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="19"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="19"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="19"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="19"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="19"/>
+      <c r="B35" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="19"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="19"/>
+      <c r="B40" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="19"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="19"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="19"/>
+      <c r="B43" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="19"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="19"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="19"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="19"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="19"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="20"/>
+      <c r="B49" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="22"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" s="22"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A3:A49"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/举报网站工作计划.xlsx
+++ b/举报网站工作计划.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="总体计划" sheetId="1" r:id="rId1"/>
     <sheet name="20160220" sheetId="2" r:id="rId2"/>
     <sheet name="20160229" sheetId="3" r:id="rId3"/>
+    <sheet name="20160331" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="189">
   <si>
     <t>举报人</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -702,6 +703,69 @@
   </si>
   <si>
     <t>崔剑</t>
+  </si>
+  <si>
+    <t>后台管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司信息设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要添加联系人信息及邮件地址（可多添）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要可设置 “是否通过邮价接收举报？”，可选择按单个举报接收（收到举报即邮件发送给公司联系人，HTML或PDF格式），或者每周接收一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报管理</t>
+  </si>
+  <si>
+    <t>需要有列表显示“最近一个月的举报”，“最近三个月的举报”，“最近一年的举报”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有个子单元来统计举报以及举报管理信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出后返回首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置“公司logo”之后， “公司logo”应该体现在举报端。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要显示“案件编号”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“举报状态“ 的“已查看“状态应该是自动更改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要访问者记录（自己开发），记录IP（whois：IP对应地址，IPS服务商），时间，能够查询IP在一段时间内的访问次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报可输出（支持pdf、word、excel）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -748,7 +812,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -808,11 +872,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -837,28 +910,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,6 +945,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,10 +1326,10 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1274,8 +1356,8 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1296,8 +1378,8 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1318,8 +1400,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1340,8 +1422,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1364,8 +1446,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1386,10 +1468,10 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1414,8 +1496,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1434,8 +1516,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1448,8 +1530,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1470,8 +1552,8 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1490,8 +1572,8 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1512,8 +1594,8 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,10 +1614,10 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1554,8 +1636,8 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1568,8 +1650,8 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1582,8 +1664,8 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,8 +1678,8 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1610,8 +1692,8 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1626,8 +1708,8 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1640,8 +1722,8 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1656,8 +1738,8 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1670,8 +1752,8 @@
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1686,8 +1768,8 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,10 +1782,10 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1722,8 +1804,8 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
@@ -1736,8 +1818,8 @@
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1750,7 +1832,7 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1766,10 +1848,10 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1784,8 +1866,8 @@
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1798,8 +1880,8 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1814,8 +1896,8 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1829,11 +1911,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
@@ -1850,16 +1937,11 @@
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1957,7 +2039,7 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -1965,7 +2047,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1973,7 +2055,7 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -1981,7 +2063,7 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1989,7 +2071,7 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="14"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -1997,7 +2079,7 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="14"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -2005,7 +2087,7 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -2056,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2073,45 +2155,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -2135,7 +2217,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="12"/>
       <c r="C4" s="6" t="s">
         <v>92</v>
@@ -2155,7 +2237,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="12"/>
       <c r="C5" s="6" t="s">
         <v>85</v>
@@ -2175,7 +2257,7 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="12"/>
       <c r="C6" s="6" t="s">
         <v>94</v>
@@ -2195,7 +2277,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="12"/>
       <c r="C7" s="6" t="s">
         <v>88</v>
@@ -2215,7 +2297,7 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="12"/>
       <c r="C8" s="6" t="s">
         <v>95</v>
@@ -2235,7 +2317,7 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="12"/>
       <c r="C9" s="6" t="s">
         <v>88</v>
@@ -2255,7 +2337,7 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="12"/>
       <c r="C10" s="6" t="s">
         <v>97</v>
@@ -2275,7 +2357,7 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="12"/>
       <c r="C11" s="6" t="s">
         <v>99</v>
@@ -2295,7 +2377,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="12"/>
       <c r="C12" s="6" t="s">
         <v>100</v>
@@ -2315,7 +2397,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="12" t="s">
         <v>112</v>
       </c>
@@ -2337,7 +2419,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
         <v>105</v>
@@ -2357,7 +2439,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="12"/>
       <c r="C15" s="6" t="s">
         <v>106</v>
@@ -2377,7 +2459,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="12"/>
       <c r="C16" s="6" t="s">
         <v>107</v>
@@ -2397,7 +2479,7 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="12"/>
       <c r="C17" s="6" t="s">
         <v>108</v>
@@ -2417,7 +2499,7 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="12"/>
       <c r="C18" s="6" t="s">
         <v>109</v>
@@ -2437,7 +2519,7 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="12"/>
       <c r="C19" s="6" t="s">
         <v>111</v>
@@ -2457,7 +2539,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="12" t="s">
         <v>113</v>
       </c>
@@ -2479,7 +2561,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="12"/>
       <c r="C21" s="6" t="s">
         <v>115</v>
@@ -2499,7 +2581,7 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="12"/>
       <c r="C22" s="6" t="s">
         <v>116</v>
@@ -2519,7 +2601,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="12"/>
       <c r="C23" s="6" t="s">
         <v>124</v>
@@ -2539,7 +2621,7 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="12"/>
       <c r="C24" s="6" t="s">
         <v>117</v>
@@ -2559,7 +2641,7 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="12" t="s">
         <v>118</v>
       </c>
@@ -2581,7 +2663,7 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="12"/>
       <c r="C26" s="6" t="s">
         <v>120</v>
@@ -2601,7 +2683,7 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="12"/>
       <c r="C27" s="6" t="s">
         <v>121</v>
@@ -2621,7 +2703,7 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="12"/>
       <c r="C28" s="6" t="s">
         <v>122</v>
@@ -2641,7 +2723,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="12"/>
       <c r="C29" s="6" t="s">
         <v>125</v>
@@ -2661,7 +2743,7 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="12" t="s">
         <v>126</v>
       </c>
@@ -2683,7 +2765,7 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="12"/>
       <c r="C31" s="6" t="s">
         <v>115</v>
@@ -2703,7 +2785,7 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="12"/>
       <c r="C32" s="6" t="s">
         <v>128</v>
@@ -2723,7 +2805,7 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="19"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="12"/>
       <c r="C33" s="6" t="s">
         <v>124</v>
@@ -2743,7 +2825,7 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="19"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="12"/>
       <c r="C34" s="6" t="s">
         <v>129</v>
@@ -2763,7 +2845,7 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="12" t="s">
         <v>130</v>
       </c>
@@ -2785,7 +2867,7 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="19"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="12"/>
       <c r="C36" s="6" t="s">
         <v>132</v>
@@ -2805,7 +2887,7 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="19"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="12"/>
       <c r="C37" s="6" t="s">
         <v>133</v>
@@ -2825,7 +2907,7 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="19"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="12"/>
       <c r="C38" s="6" t="s">
         <v>124</v>
@@ -2845,7 +2927,7 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="12"/>
       <c r="C39" s="6" t="s">
         <v>129</v>
@@ -2865,7 +2947,7 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="19"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="12" t="s">
         <v>143</v>
       </c>
@@ -2887,7 +2969,7 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="19"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="12"/>
       <c r="C41" s="6" t="s">
         <v>135</v>
@@ -2907,7 +2989,7 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="19"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="12"/>
       <c r="C42" s="6" t="s">
         <v>136</v>
@@ -2927,14 +3009,14 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="19"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="11" t="s">
         <v>104</v>
       </c>
       <c r="E43" s="6" t="s">
@@ -2949,12 +3031,12 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="19"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="11" t="s">
         <v>93</v>
       </c>
       <c r="E44" s="6" t="s">
@@ -2969,12 +3051,12 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="19"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="11" t="s">
         <v>87</v>
       </c>
       <c r="E45" s="6" t="s">
@@ -2989,12 +3071,12 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="11" t="s">
         <v>96</v>
       </c>
       <c r="E46" s="6" t="s">
@@ -3009,12 +3091,12 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="19"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="11" t="s">
         <v>98</v>
       </c>
       <c r="E47" s="6" t="s">
@@ -3029,12 +3111,12 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="19"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="11" t="s">
         <v>142</v>
       </c>
       <c r="E48" s="6" t="s">
@@ -3049,12 +3131,12 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="20"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
       <c r="E49" s="6" t="s">
         <v>163</v>
       </c>
@@ -3067,13 +3149,13 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="11" t="s">
         <v>145</v>
       </c>
       <c r="D50" s="6"/>
@@ -3087,11 +3169,11 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="11" t="s">
         <v>145</v>
       </c>
       <c r="D51" s="6"/>
@@ -3117,7 +3199,7 @@
       <c r="F52" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="G52" s="20" t="s">
         <v>170</v>
       </c>
       <c r="H52" s="6"/>
@@ -3135,7 +3217,7 @@
       <c r="F53" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="22"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -3151,7 +3233,7 @@
       <c r="F54" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G54" s="22"/>
+      <c r="G54" s="21"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -3167,11 +3249,20 @@
       <c r="F55" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G55" s="23"/>
+      <c r="G55" s="22"/>
       <c r="H55" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B29"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A3:A49"/>
     <mergeCell ref="G52:G55"/>
@@ -3179,15 +3270,167 @@
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="B43:B48"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="79.25" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B29"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/举报网站工作计划.xlsx
+++ b/举报网站工作计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -12,12 +12,12 @@
     <sheet name="20160229" sheetId="3" r:id="rId3"/>
     <sheet name="20160331" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="191">
   <si>
     <t>举报人</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -765,14 +765,21 @@
   </si>
   <si>
     <t>崔剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷春霞</t>
+  </si>
+  <si>
+    <t>谷春霞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,20 +921,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -947,16 +960,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,7 +1026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1051,10 +1058,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1086,7 +1092,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1262,14 +1267,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
@@ -1283,36 +1288,36 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+    <row r="2" spans="1:10" s="4" customFormat="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
@@ -1322,23 +1327,23 @@
       <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="15">
         <v>20160201</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="15">
         <v>20160219</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1355,14 +1360,14 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
@@ -1377,14 +1382,14 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
@@ -1399,14 +1404,14 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="6" t="s">
         <v>56</v>
       </c>
@@ -1421,16 +1426,16 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="6" t="s">
         <v>56</v>
       </c>
@@ -1445,14 +1450,14 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="6" t="s">
         <v>56</v>
       </c>
@@ -1467,20 +1472,20 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="15">
         <v>20160220</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="15">
         <v>20160226</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1495,14 +1500,14 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="6" t="s">
         <v>56</v>
       </c>
@@ -1515,30 +1520,30 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="6" t="s">
         <v>56</v>
       </c>
@@ -1551,14 +1556,14 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="6" t="s">
         <v>60</v>
       </c>
@@ -1571,16 +1576,16 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="6" t="s">
         <v>67</v>
       </c>
@@ -1593,14 +1598,14 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="6" t="s">
         <v>64</v>
       </c>
@@ -1613,20 +1618,20 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="15">
         <v>20160227</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="15">
         <v>20160305</v>
       </c>
       <c r="F16" s="6"/>
@@ -1635,166 +1640,166 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="14"/>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="15">
         <v>20160306</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="15">
         <v>20160312</v>
       </c>
       <c r="F27" s="6"/>
@@ -1803,35 +1808,35 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>35</v>
@@ -1839,70 +1844,70 @@
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="14"/>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1911,16 +1916,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
@@ -1937,11 +1937,16 @@
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1950,14 +1955,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="44.375" bestFit="1" customWidth="1"/>
@@ -1965,7 +1970,7 @@
     <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>68</v>
       </c>
@@ -1976,7 +1981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>20160224</v>
       </c>
@@ -1990,7 +1995,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>20160225</v>
       </c>
@@ -2004,7 +2009,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>20160226</v>
       </c>
@@ -2018,7 +2023,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2026,7 +2031,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2034,63 +2039,63 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2098,7 +2103,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2106,7 +2111,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2114,7 +2119,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2135,14 +2140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26.25" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
@@ -2154,27 +2159,27 @@
     <col min="8" max="8" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -2187,16 +2192,16 @@
       <c r="D2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2216,9 +2221,9 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="12"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="6" t="s">
         <v>92</v>
       </c>
@@ -2236,9 +2241,9 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="12"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="6" t="s">
         <v>85</v>
       </c>
@@ -2256,9 +2261,9 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="12"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="20"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="6" t="s">
         <v>94</v>
       </c>
@@ -2276,9 +2281,9 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="12"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="20"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="6" t="s">
         <v>88</v>
       </c>
@@ -2296,9 +2301,9 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="12"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="20"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="6" t="s">
         <v>95</v>
       </c>
@@ -2316,9 +2321,9 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="12"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="20"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="6" t="s">
         <v>88</v>
       </c>
@@ -2336,9 +2341,9 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="12"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="20"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="6" t="s">
         <v>97</v>
       </c>
@@ -2356,9 +2361,9 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="20"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6" t="s">
         <v>99</v>
       </c>
@@ -2376,9 +2381,9 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="12"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="20"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="6" t="s">
         <v>100</v>
       </c>
@@ -2396,9 +2401,9 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="20"/>
+      <c r="B13" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2418,9 +2423,9 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="12"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="20"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="6" t="s">
         <v>105</v>
       </c>
@@ -2438,9 +2443,9 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="12"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="20"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="6" t="s">
         <v>106</v>
       </c>
@@ -2458,9 +2463,9 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="12"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="20"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="6" t="s">
         <v>107</v>
       </c>
@@ -2478,9 +2483,9 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="12"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="20"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="6" t="s">
         <v>108</v>
       </c>
@@ -2498,9 +2503,9 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="12"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="20"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="6" t="s">
         <v>109</v>
       </c>
@@ -2518,9 +2523,9 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="12"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="20"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="6" t="s">
         <v>111</v>
       </c>
@@ -2538,9 +2543,9 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="20"/>
+      <c r="B20" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2560,9 +2565,9 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="12"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="20"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="6" t="s">
         <v>115</v>
       </c>
@@ -2580,9 +2585,9 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="12"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="20"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="6" t="s">
         <v>116</v>
       </c>
@@ -2600,9 +2605,9 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="12"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="20"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="6" t="s">
         <v>124</v>
       </c>
@@ -2620,9 +2625,9 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="12"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="20"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="6" t="s">
         <v>117</v>
       </c>
@@ -2640,9 +2645,9 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="12" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="20"/>
+      <c r="B25" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2662,9 +2667,9 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="12"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="20"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="6" t="s">
         <v>120</v>
       </c>
@@ -2682,9 +2687,9 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="12"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="20"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="6" t="s">
         <v>121</v>
       </c>
@@ -2702,9 +2707,9 @@
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="12"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="20"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="6" t="s">
         <v>122</v>
       </c>
@@ -2722,9 +2727,9 @@
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="12"/>
+    <row r="29" spans="1:8">
+      <c r="A29" s="20"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="6" t="s">
         <v>125</v>
       </c>
@@ -2742,9 +2747,9 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="12" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="20"/>
+      <c r="B30" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2764,9 +2769,9 @@
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="12"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="20"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="6" t="s">
         <v>115</v>
       </c>
@@ -2784,9 +2789,9 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="12"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="20"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="6" t="s">
         <v>128</v>
       </c>
@@ -2804,9 +2809,9 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="12"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="20"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="6" t="s">
         <v>124</v>
       </c>
@@ -2824,9 +2829,9 @@
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="12"/>
+    <row r="34" spans="1:8">
+      <c r="A34" s="20"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="6" t="s">
         <v>129</v>
       </c>
@@ -2844,9 +2849,9 @@
       </c>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="12" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="20"/>
+      <c r="B35" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2866,9 +2871,9 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="12"/>
+    <row r="36" spans="1:8">
+      <c r="A36" s="20"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="6" t="s">
         <v>132</v>
       </c>
@@ -2886,9 +2891,9 @@
       </c>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="12"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="20"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="6" t="s">
         <v>133</v>
       </c>
@@ -2906,9 +2911,9 @@
       </c>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="12"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="20"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="6" t="s">
         <v>124</v>
       </c>
@@ -2926,9 +2931,9 @@
       </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="12"/>
+    <row r="39" spans="1:8">
+      <c r="A39" s="20"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="6" t="s">
         <v>129</v>
       </c>
@@ -2946,9 +2951,9 @@
       </c>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="12" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="20"/>
+      <c r="B40" s="15" t="s">
         <v>143</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -2968,9 +2973,9 @@
       </c>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="18"/>
-      <c r="B41" s="12"/>
+    <row r="41" spans="1:8">
+      <c r="A41" s="20"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="6" t="s">
         <v>135</v>
       </c>
@@ -2988,9 +2993,9 @@
       </c>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="18"/>
-      <c r="B42" s="12"/>
+    <row r="42" spans="1:8">
+      <c r="A42" s="20"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="6" t="s">
         <v>136</v>
       </c>
@@ -3008,9 +3013,9 @@
       </c>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="12" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="20"/>
+      <c r="B43" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -3030,9 +3035,9 @@
       </c>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
-      <c r="B44" s="12"/>
+    <row r="44" spans="1:8">
+      <c r="A44" s="20"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="11" t="s">
         <v>92</v>
       </c>
@@ -3050,9 +3055,9 @@
       </c>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="18"/>
-      <c r="B45" s="12"/>
+    <row r="45" spans="1:8">
+      <c r="A45" s="20"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="11" t="s">
         <v>138</v>
       </c>
@@ -3070,9 +3075,9 @@
       </c>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="18"/>
-      <c r="B46" s="12"/>
+    <row r="46" spans="1:8">
+      <c r="A46" s="20"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="11" t="s">
         <v>140</v>
       </c>
@@ -3090,9 +3095,9 @@
       </c>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="18"/>
-      <c r="B47" s="12"/>
+    <row r="47" spans="1:8">
+      <c r="A47" s="20"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="11" t="s">
         <v>139</v>
       </c>
@@ -3110,9 +3115,9 @@
       </c>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="18"/>
-      <c r="B48" s="12"/>
+    <row r="48" spans="1:8">
+      <c r="A48" s="20"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="11" t="s">
         <v>141</v>
       </c>
@@ -3130,8 +3135,8 @@
       </c>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="19"/>
+    <row r="49" spans="1:8">
+      <c r="A49" s="21"/>
       <c r="B49" s="9" t="s">
         <v>155</v>
       </c>
@@ -3148,7 +3153,7 @@
       </c>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="A50" s="14" t="s">
         <v>25</v>
       </c>
@@ -3168,7 +3173,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="1" t="s">
         <v>11</v>
@@ -3186,7 +3191,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8">
       <c r="A52" s="6" t="s">
         <v>146</v>
       </c>
@@ -3199,12 +3204,12 @@
       <c r="F52" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="22" t="s">
         <v>170</v>
       </c>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8">
       <c r="A53" s="6" t="s">
         <v>147</v>
       </c>
@@ -3217,10 +3222,10 @@
       <c r="F53" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="21"/>
+      <c r="G53" s="23"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8">
       <c r="A54" s="6" t="s">
         <v>148</v>
       </c>
@@ -3233,10 +3238,10 @@
       <c r="F54" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G54" s="21"/>
+      <c r="G54" s="23"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8">
       <c r="A55" s="6" t="s">
         <v>149</v>
       </c>
@@ -3249,27 +3254,27 @@
       <c r="F55" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G55" s="22"/>
+      <c r="G55" s="24"/>
       <c r="H55" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B48"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A3:A49"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3278,14 +3283,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -3293,27 +3298,27 @@
     <col min="4" max="4" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -3326,111 +3331,117 @@
       <c r="D2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="12" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="24" t="s">
+      <c r="G3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="24" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="12" t="s">
         <v>187</v>
       </c>
       <c r="G6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="24" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="24" t="s">
+      <c r="G7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="24" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="24" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="24" t="s">
+    <row r="12" spans="1:8" ht="27">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:4">
       <c r="D20" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/举报网站工作计划.xlsx
+++ b/举报网站工作计划.xlsx
@@ -925,21 +925,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -951,13 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1289,35 +1289,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
@@ -1327,23 +1327,23 @@
       <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>20160201</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>20160219</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1361,13 +1361,13 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
@@ -1383,13 +1383,13 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
@@ -1405,13 +1405,13 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="6" t="s">
         <v>56</v>
       </c>
@@ -1427,15 +1427,15 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="6" t="s">
         <v>56</v>
       </c>
@@ -1451,13 +1451,13 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="6" t="s">
         <v>56</v>
       </c>
@@ -1473,19 +1473,19 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>20160220</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>20160226</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1501,13 +1501,13 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="6" t="s">
         <v>56</v>
       </c>
@@ -1521,13 +1521,13 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1535,15 +1535,15 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="6" t="s">
         <v>56</v>
       </c>
@@ -1557,13 +1557,13 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="6" t="s">
         <v>60</v>
       </c>
@@ -1577,15 +1577,15 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="14"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="6" t="s">
         <v>67</v>
       </c>
@@ -1599,13 +1599,13 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="14"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="6" t="s">
         <v>64</v>
       </c>
@@ -1619,19 +1619,19 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>20160227</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <v>20160305</v>
       </c>
       <c r="F16" s="6"/>
@@ -1641,13 +1641,13 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="14"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1655,13 +1655,13 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="14"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1669,13 +1669,13 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="14"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1683,13 +1683,13 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1697,15 +1697,15 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="14"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1713,13 +1713,13 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="14"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1727,15 +1727,15 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1743,13 +1743,13 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1757,15 +1757,15 @@
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1773,13 +1773,13 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1787,19 +1787,19 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>20160306</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="13">
         <v>20160312</v>
       </c>
       <c r="F27" s="6"/>
@@ -1809,13 +1809,13 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="14"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1823,13 +1823,13 @@
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1837,15 +1837,15 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="14"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1853,17 +1853,17 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1871,13 +1871,13 @@
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1885,15 +1885,15 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1901,13 +1901,13 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1916,11 +1916,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
@@ -1937,16 +1942,11 @@
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2160,22 +2160,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="24" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2192,16 +2192,16 @@
       <c r="D2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2222,8 +2222,8 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="20"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="6" t="s">
         <v>92</v>
       </c>
@@ -2242,8 +2242,8 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
         <v>85</v>
       </c>
@@ -2262,8 +2262,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="20"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="6" t="s">
         <v>94</v>
       </c>
@@ -2282,8 +2282,8 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="20"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
         <v>88</v>
       </c>
@@ -2302,8 +2302,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="20"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="6" t="s">
         <v>95</v>
       </c>
@@ -2322,8 +2322,8 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="20"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="6" t="s">
         <v>88</v>
       </c>
@@ -2342,8 +2342,8 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="20"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="6" t="s">
         <v>97</v>
       </c>
@@ -2362,8 +2362,8 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="20"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
         <v>99</v>
       </c>
@@ -2382,8 +2382,8 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="20"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="6" t="s">
         <v>100</v>
       </c>
@@ -2402,8 +2402,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="20"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="13" t="s">
         <v>112</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2424,8 +2424,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="20"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="6" t="s">
         <v>105</v>
       </c>
@@ -2444,8 +2444,8 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="20"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6" t="s">
         <v>106</v>
       </c>
@@ -2464,8 +2464,8 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="20"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="6" t="s">
         <v>107</v>
       </c>
@@ -2484,8 +2484,8 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="20"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="6" t="s">
         <v>108</v>
       </c>
@@ -2504,8 +2504,8 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="20"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="6" t="s">
         <v>109</v>
       </c>
@@ -2524,8 +2524,8 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="20"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="6" t="s">
         <v>111</v>
       </c>
@@ -2544,8 +2544,8 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="20"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2566,8 +2566,8 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="20"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="6" t="s">
         <v>115</v>
       </c>
@@ -2586,8 +2586,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="20"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="6" t="s">
         <v>116</v>
       </c>
@@ -2606,8 +2606,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="20"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6" t="s">
         <v>124</v>
       </c>
@@ -2626,8 +2626,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="20"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="6" t="s">
         <v>117</v>
       </c>
@@ -2646,8 +2646,8 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="20"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="13" t="s">
         <v>118</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2668,8 +2668,8 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="20"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="6" t="s">
         <v>120</v>
       </c>
@@ -2688,8 +2688,8 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="20"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="6" t="s">
         <v>121</v>
       </c>
@@ -2708,8 +2708,8 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="20"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="6" t="s">
         <v>122</v>
       </c>
@@ -2728,8 +2728,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="20"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="6" t="s">
         <v>125</v>
       </c>
@@ -2748,8 +2748,8 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="20"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="13" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2770,8 +2770,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="20"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="6" t="s">
         <v>115</v>
       </c>
@@ -2790,8 +2790,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="20"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="6" t="s">
         <v>128</v>
       </c>
@@ -2810,8 +2810,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="20"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="6" t="s">
         <v>124</v>
       </c>
@@ -2830,8 +2830,8 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="20"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="6" t="s">
         <v>129</v>
       </c>
@@ -2850,8 +2850,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="20"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="13" t="s">
         <v>130</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2872,8 +2872,8 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="20"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="6" t="s">
         <v>132</v>
       </c>
@@ -2892,8 +2892,8 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="20"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="6" t="s">
         <v>133</v>
       </c>
@@ -2912,8 +2912,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="20"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="6" t="s">
         <v>124</v>
       </c>
@@ -2932,8 +2932,8 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="20"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="6" t="s">
         <v>129</v>
       </c>
@@ -2952,8 +2952,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="20"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="13" t="s">
         <v>143</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -2974,8 +2974,8 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="20"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="6" t="s">
         <v>135</v>
       </c>
@@ -2994,8 +2994,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="20"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="6" t="s">
         <v>136</v>
       </c>
@@ -3014,8 +3014,8 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="20"/>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="22"/>
+      <c r="B43" s="13" t="s">
         <v>144</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -3036,8 +3036,8 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="20"/>
-      <c r="B44" s="15"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
         <v>92</v>
       </c>
@@ -3056,8 +3056,8 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="20"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
         <v>138</v>
       </c>
@@ -3076,8 +3076,8 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="20"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
         <v>140</v>
       </c>
@@ -3096,8 +3096,8 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="20"/>
-      <c r="B47" s="15"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
         <v>139</v>
       </c>
@@ -3116,8 +3116,8 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="20"/>
-      <c r="B48" s="15"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
         <v>141</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="21"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="9" t="s">
         <v>155</v>
       </c>
@@ -3154,7 +3154,7 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3174,7 +3174,7 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="14"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="F52" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="18" t="s">
         <v>170</v>
       </c>
       <c r="H52" s="6"/>
@@ -3222,7 +3222,7 @@
       <c r="F53" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="23"/>
+      <c r="G53" s="19"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
@@ -3238,7 +3238,7 @@
       <c r="F54" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G54" s="23"/>
+      <c r="G54" s="19"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8">
@@ -3254,27 +3254,27 @@
       <c r="F55" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G55" s="24"/>
+      <c r="G55" s="20"/>
       <c r="H55" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A3:A49"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3299,22 +3299,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="24" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3331,10 +3331,10 @@
       <c r="D2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="26" t="s">
@@ -3366,6 +3366,9 @@
       <c r="C5" s="12" t="s">
         <v>182</v>
       </c>
+      <c r="G5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="25"/>
@@ -3385,9 +3388,6 @@
       <c r="C7" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G7" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="25"/>
@@ -3433,15 +3433,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/举报网站工作计划.xlsx
+++ b/举报网站工作计划.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="总体计划" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="20160229" sheetId="3" r:id="rId3"/>
     <sheet name="20160331" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="217">
   <si>
     <t>举报人</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -740,46 +740,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>需要显示“案件编号”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“举报状态“ 的“已查看“状态应该是自动更改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要访问者记录（自己开发），记录IP（whois：IP对应地址，IPS服务商），时间，能够查询IP在一段时间内的访问次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报可输出（支持pdf、word、excel）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷春霞</t>
+  </si>
+  <si>
+    <t>崔剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户公司登陆界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 用户帐号目前状态，以及上次登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b) 最近的案件简报, 例如最近12个月收到举报的简报（列表方式呈现，用“举报时间”优先排列，并优先最近收到还未查看的案件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 最近4周收到总体举报的数量及简报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b) 最近十个用户上次登录时间及查看/处理的情况简报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加用户字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看单个用户的操作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设置的操作做成菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷春霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋，谷春霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋、谷春霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔剑，肖秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷春霞，肖秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>设置“公司logo”之后， “公司logo”应该体现在举报端。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要显示“案件编号”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“举报状态“ 的“已查看“状态应该是自动更改。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要访问者记录（自己开发），记录IP（whois：IP对应地址，IPS服务商），时间，能够查询IP在一段时间内的访问次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举报可输出（支持pdf、word、excel）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷春霞</t>
-  </si>
-  <si>
-    <t>谷春霞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,7 +996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -925,27 +1029,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -957,13 +1055,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,7 +1136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1058,9 +1168,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1092,6 +1203,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1267,14 +1379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
@@ -1288,36 +1400,36 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
@@ -1327,23 +1439,23 @@
       <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="15" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="15">
         <v>20160201</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="15">
         <v>20160219</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1360,14 +1472,14 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
@@ -1382,14 +1494,14 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
@@ -1404,14 +1516,14 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="6" t="s">
         <v>56</v>
       </c>
@@ -1426,16 +1538,16 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="6" t="s">
         <v>56</v>
       </c>
@@ -1450,14 +1562,14 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="6" t="s">
         <v>56</v>
       </c>
@@ -1472,20 +1584,20 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="15">
         <v>20160220</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="15">
         <v>20160226</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1500,14 +1612,14 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="6" t="s">
         <v>56</v>
       </c>
@@ -1520,30 +1632,30 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="6" t="s">
         <v>56</v>
       </c>
@@ -1556,14 +1668,14 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="6" t="s">
         <v>60</v>
       </c>
@@ -1576,16 +1688,16 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="6" t="s">
         <v>67</v>
       </c>
@@ -1598,14 +1710,14 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="6" t="s">
         <v>64</v>
       </c>
@@ -1618,20 +1730,20 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="15">
         <v>20160227</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="15">
         <v>20160305</v>
       </c>
       <c r="F16" s="6"/>
@@ -1640,166 +1752,166 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="15">
         <v>20160306</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="15">
         <v>20160312</v>
       </c>
       <c r="F27" s="6"/>
@@ -1808,106 +1920,106 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="15"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1916,16 +2028,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
@@ -1942,11 +2049,16 @@
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1955,14 +2067,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="44.375" bestFit="1" customWidth="1"/>
@@ -1970,7 +2082,7 @@
     <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>68</v>
       </c>
@@ -1981,7 +2093,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20160224</v>
       </c>
@@ -1995,7 +2107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20160225</v>
       </c>
@@ -2009,7 +2121,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>20160226</v>
       </c>
@@ -2023,7 +2135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2031,7 +2143,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2039,7 +2151,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2047,7 +2159,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2055,7 +2167,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2063,7 +2175,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2071,7 +2183,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2079,7 +2191,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2087,7 +2199,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2095,7 +2207,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2103,7 +2215,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2111,7 +2223,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2119,7 +2231,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2140,14 +2252,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.25" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
@@ -2159,27 +2271,27 @@
     <col min="8" max="8" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -2192,16 +2304,16 @@
       <c r="D2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2221,9 +2333,9 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="22"/>
-      <c r="B4" s="13"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="6" t="s">
         <v>92</v>
       </c>
@@ -2241,9 +2353,9 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="22"/>
-      <c r="B5" s="13"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="6" t="s">
         <v>85</v>
       </c>
@@ -2261,9 +2373,9 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="22"/>
-      <c r="B6" s="13"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="6" t="s">
         <v>94</v>
       </c>
@@ -2281,9 +2393,9 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="22"/>
-      <c r="B7" s="13"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="6" t="s">
         <v>88</v>
       </c>
@@ -2301,9 +2413,9 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="22"/>
-      <c r="B8" s="13"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="6" t="s">
         <v>95</v>
       </c>
@@ -2321,9 +2433,9 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="22"/>
-      <c r="B9" s="13"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="6" t="s">
         <v>88</v>
       </c>
@@ -2341,9 +2453,9 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="22"/>
-      <c r="B10" s="13"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="6" t="s">
         <v>97</v>
       </c>
@@ -2361,9 +2473,9 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="22"/>
-      <c r="B11" s="13"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6" t="s">
         <v>99</v>
       </c>
@@ -2381,9 +2493,9 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="22"/>
-      <c r="B12" s="13"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="6" t="s">
         <v>100</v>
       </c>
@@ -2401,9 +2513,9 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="22"/>
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2423,9 +2535,9 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="22"/>
-      <c r="B14" s="13"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="6" t="s">
         <v>105</v>
       </c>
@@ -2443,9 +2555,9 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="22"/>
-      <c r="B15" s="13"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="6" t="s">
         <v>106</v>
       </c>
@@ -2463,9 +2575,9 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="22"/>
-      <c r="B16" s="13"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="6" t="s">
         <v>107</v>
       </c>
@@ -2483,9 +2595,9 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="22"/>
-      <c r="B17" s="13"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="6" t="s">
         <v>108</v>
       </c>
@@ -2503,9 +2615,9 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="22"/>
-      <c r="B18" s="13"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="6" t="s">
         <v>109</v>
       </c>
@@ -2523,9 +2635,9 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="22"/>
-      <c r="B19" s="13"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="6" t="s">
         <v>111</v>
       </c>
@@ -2543,9 +2655,9 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="22"/>
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2565,9 +2677,9 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="22"/>
-      <c r="B21" s="13"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="20"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="6" t="s">
         <v>115</v>
       </c>
@@ -2585,9 +2697,9 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="22"/>
-      <c r="B22" s="13"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="20"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="6" t="s">
         <v>116</v>
       </c>
@@ -2605,9 +2717,9 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="22"/>
-      <c r="B23" s="13"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="20"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="6" t="s">
         <v>124</v>
       </c>
@@ -2625,9 +2737,9 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="22"/>
-      <c r="B24" s="13"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="6" t="s">
         <v>117</v>
       </c>
@@ -2645,9 +2757,9 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="22"/>
-      <c r="B25" s="13" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="20"/>
+      <c r="B25" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2667,9 +2779,9 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="22"/>
-      <c r="B26" s="13"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="20"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="6" t="s">
         <v>120</v>
       </c>
@@ -2687,9 +2799,9 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="22"/>
-      <c r="B27" s="13"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="20"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="6" t="s">
         <v>121</v>
       </c>
@@ -2707,9 +2819,9 @@
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="22"/>
-      <c r="B28" s="13"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="20"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="6" t="s">
         <v>122</v>
       </c>
@@ -2727,9 +2839,9 @@
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="22"/>
-      <c r="B29" s="13"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="6" t="s">
         <v>125</v>
       </c>
@@ -2747,9 +2859,9 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="22"/>
-      <c r="B30" s="13" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2769,9 +2881,9 @@
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="22"/>
-      <c r="B31" s="13"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="6" t="s">
         <v>115</v>
       </c>
@@ -2789,9 +2901,9 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="22"/>
-      <c r="B32" s="13"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="6" t="s">
         <v>128</v>
       </c>
@@ -2809,9 +2921,9 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="22"/>
-      <c r="B33" s="13"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="6" t="s">
         <v>124</v>
       </c>
@@ -2829,9 +2941,9 @@
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="22"/>
-      <c r="B34" s="13"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="6" t="s">
         <v>129</v>
       </c>
@@ -2849,9 +2961,9 @@
       </c>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="22"/>
-      <c r="B35" s="13" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="20"/>
+      <c r="B35" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2871,9 +2983,9 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="22"/>
-      <c r="B36" s="13"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="20"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="6" t="s">
         <v>132</v>
       </c>
@@ -2891,9 +3003,9 @@
       </c>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="22"/>
-      <c r="B37" s="13"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="20"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="6" t="s">
         <v>133</v>
       </c>
@@ -2911,9 +3023,9 @@
       </c>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="22"/>
-      <c r="B38" s="13"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="6" t="s">
         <v>124</v>
       </c>
@@ -2931,9 +3043,9 @@
       </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="22"/>
-      <c r="B39" s="13"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="20"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="6" t="s">
         <v>129</v>
       </c>
@@ -2951,9 +3063,9 @@
       </c>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="22"/>
-      <c r="B40" s="13" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="20"/>
+      <c r="B40" s="15" t="s">
         <v>143</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -2973,9 +3085,9 @@
       </c>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="22"/>
-      <c r="B41" s="13"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="20"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="6" t="s">
         <v>135</v>
       </c>
@@ -2993,9 +3105,9 @@
       </c>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="22"/>
-      <c r="B42" s="13"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="20"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="6" t="s">
         <v>136</v>
       </c>
@@ -3013,9 +3125,9 @@
       </c>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="22"/>
-      <c r="B43" s="13" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="20"/>
+      <c r="B43" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -3035,9 +3147,9 @@
       </c>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="22"/>
-      <c r="B44" s="13"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="20"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="11" t="s">
         <v>92</v>
       </c>
@@ -3055,9 +3167,9 @@
       </c>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="22"/>
-      <c r="B45" s="13"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="20"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="11" t="s">
         <v>138</v>
       </c>
@@ -3075,9 +3187,9 @@
       </c>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="22"/>
-      <c r="B46" s="13"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="20"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="11" t="s">
         <v>140</v>
       </c>
@@ -3095,9 +3207,9 @@
       </c>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="22"/>
-      <c r="B47" s="13"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="20"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="11" t="s">
         <v>139</v>
       </c>
@@ -3115,9 +3227,9 @@
       </c>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="22"/>
-      <c r="B48" s="13"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="20"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="11" t="s">
         <v>141</v>
       </c>
@@ -3135,8 +3247,8 @@
       </c>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="23"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="21"/>
       <c r="B49" s="9" t="s">
         <v>155</v>
       </c>
@@ -3153,8 +3265,8 @@
       </c>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="15" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3173,8 +3285,8 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="15"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="14"/>
       <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
@@ -3191,7 +3303,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
         <v>146</v>
       </c>
@@ -3204,12 +3316,12 @@
       <c r="F52" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="22" t="s">
         <v>170</v>
       </c>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
         <v>147</v>
       </c>
@@ -3222,10 +3334,10 @@
       <c r="F53" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="19"/>
+      <c r="G53" s="23"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
         <v>148</v>
       </c>
@@ -3238,10 +3350,10 @@
       <c r="F54" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G54" s="19"/>
+      <c r="G54" s="23"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
         <v>149</v>
       </c>
@@ -3254,27 +3366,27 @@
       <c r="F55" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G55" s="20"/>
+      <c r="G55" s="24"/>
       <c r="H55" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B48"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A3:A49"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3283,42 +3395,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="79.25" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -3331,12 +3444,12 @@
       <c r="D2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>173</v>
       </c>
@@ -3347,92 +3460,251 @@
         <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27">
-      <c r="A4" s="25"/>
+        <v>212</v>
+      </c>
+      <c r="H3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
       <c r="B4" s="25"/>
       <c r="C4" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="25"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="28"/>
       <c r="B5" s="25"/>
       <c r="C5" s="12" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="25"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="28"/>
       <c r="B6" s="25" t="s">
         <v>177</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" t="s">
         <v>187</v>
       </c>
-      <c r="G6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="25"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="28"/>
       <c r="B7" s="25"/>
       <c r="C7" s="12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="25"/>
+      <c r="G7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="28"/>
       <c r="B8" s="25"/>
       <c r="C8" s="12" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="25"/>
+      <c r="G8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="28"/>
       <c r="B9" s="25"/>
       <c r="C9" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="25"/>
+        <v>182</v>
+      </c>
+      <c r="G9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="28"/>
       <c r="B10" s="25"/>
       <c r="C10" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="25"/>
+        <v>183</v>
+      </c>
+      <c r="G10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="28"/>
       <c r="B11" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="27">
-      <c r="A12" s="25"/>
+      <c r="G11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
       <c r="B12" s="25"/>
       <c r="C12" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="28"/>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="28"/>
+      <c r="C16" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" t="s">
-        <v>186</v>
+      <c r="G20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="28"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
@@ -3440,8 +3712,7 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/举报网站工作计划.xlsx
+++ b/举报网站工作计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="220">
   <si>
     <t>举报人</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -876,6 +876,18 @@
   </si>
   <si>
     <t>设置“公司logo”之后， “公司logo”应该体现在举报端。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1386,21 +1398,21 @@
       <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="16.26171875" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="24.1015625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.89453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="15.1015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>43</v>
       </c>
@@ -1424,7 +1436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1442,7 +1454,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1484,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
@@ -1494,7 +1506,7 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
@@ -1516,7 +1528,7 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
@@ -1538,7 +1550,7 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="13" t="s">
         <v>2</v>
@@ -1562,7 +1574,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="13"/>
       <c r="C8" s="1" t="s">
@@ -1584,7 +1596,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +1624,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="13"/>
       <c r="C10" s="1" t="s">
@@ -1632,7 +1644,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
@@ -1646,7 +1658,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="13" t="s">
         <v>9</v>
@@ -1668,7 +1680,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
@@ -1688,7 +1700,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="13" t="s">
         <v>12</v>
@@ -1710,7 +1722,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
@@ -1730,7 +1742,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1752,7 +1764,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="13"/>
       <c r="C17" s="1" t="s">
@@ -1766,7 +1778,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
@@ -1780,7 +1792,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="13"/>
       <c r="C19" s="1" t="s">
@@ -1794,7 +1806,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="13"/>
       <c r="C20" s="1" t="s">
@@ -1808,7 +1820,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="13" t="s">
         <v>22</v>
@@ -1824,7 +1836,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="13"/>
       <c r="C22" s="1" t="s">
@@ -1838,7 +1850,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="13" t="s">
         <v>25</v>
@@ -1854,7 +1866,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="13"/>
       <c r="C24" s="1" t="s">
@@ -1868,7 +1880,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="13" t="s">
         <v>27</v>
@@ -1884,7 +1896,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="13"/>
       <c r="C26" s="1" t="s">
@@ -1898,7 +1910,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="14" t="s">
         <v>30</v>
       </c>
@@ -1920,7 +1932,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="13"/>
       <c r="C28" s="1" t="s">
@@ -1934,7 +1946,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="13"/>
       <c r="C29" s="1" t="s">
@@ -1948,7 +1960,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>35</v>
@@ -1964,7 +1976,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -1982,7 +1994,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="13"/>
       <c r="C32" s="1" t="s">
@@ -1996,7 +2008,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="B33" s="13" t="s">
         <v>41</v>
@@ -2012,7 +2024,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="B34" s="13"/>
       <c r="C34" s="1" t="s">
@@ -2074,15 +2086,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="44.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5" customWidth="1"/>
-    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.62890625" customWidth="1"/>
+    <col min="2" max="2" width="44.3671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.47265625" customWidth="1"/>
+    <col min="4" max="4" width="27.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>68</v>
       </c>
@@ -2093,7 +2105,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>20160224</v>
       </c>
@@ -2107,7 +2119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>20160225</v>
       </c>
@@ -2121,7 +2133,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>20160226</v>
       </c>
@@ -2135,7 +2147,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2143,7 +2155,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2151,7 +2163,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2159,7 +2171,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2167,7 +2179,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2175,7 +2187,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2183,7 +2195,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2191,7 +2203,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2199,7 +2211,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2207,7 +2219,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2215,7 +2227,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2223,7 +2235,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2231,7 +2243,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2259,19 +2271,19 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.25" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.26171875" customWidth="1"/>
+    <col min="2" max="2" width="17.26171875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.62890625" customWidth="1"/>
+    <col min="5" max="5" width="10.62890625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="10.47265625" customWidth="1"/>
+    <col min="8" max="8" width="9.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>79</v>
       </c>
@@ -2291,7 +2303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -2309,7 +2321,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
@@ -2333,7 +2345,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="20"/>
       <c r="B4" s="15"/>
       <c r="C4" s="6" t="s">
@@ -2353,7 +2365,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="20"/>
       <c r="B5" s="15"/>
       <c r="C5" s="6" t="s">
@@ -2373,7 +2385,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="20"/>
       <c r="B6" s="15"/>
       <c r="C6" s="6" t="s">
@@ -2393,7 +2405,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="20"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6" t="s">
@@ -2413,7 +2425,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="20"/>
       <c r="B8" s="15"/>
       <c r="C8" s="6" t="s">
@@ -2433,7 +2445,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="20"/>
       <c r="B9" s="15"/>
       <c r="C9" s="6" t="s">
@@ -2453,7 +2465,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="20"/>
       <c r="B10" s="15"/>
       <c r="C10" s="6" t="s">
@@ -2473,7 +2485,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="20"/>
       <c r="B11" s="15"/>
       <c r="C11" s="6" t="s">
@@ -2493,7 +2505,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="20"/>
       <c r="B12" s="15"/>
       <c r="C12" s="6" t="s">
@@ -2513,7 +2525,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="20"/>
       <c r="B13" s="15" t="s">
         <v>112</v>
@@ -2535,7 +2547,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="20"/>
       <c r="B14" s="15"/>
       <c r="C14" s="6" t="s">
@@ -2555,7 +2567,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="20"/>
       <c r="B15" s="15"/>
       <c r="C15" s="6" t="s">
@@ -2575,7 +2587,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="20"/>
       <c r="B16" s="15"/>
       <c r="C16" s="6" t="s">
@@ -2595,7 +2607,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="20"/>
       <c r="B17" s="15"/>
       <c r="C17" s="6" t="s">
@@ -2615,7 +2627,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="20"/>
       <c r="B18" s="15"/>
       <c r="C18" s="6" t="s">
@@ -2635,7 +2647,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="20"/>
       <c r="B19" s="15"/>
       <c r="C19" s="6" t="s">
@@ -2655,7 +2667,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="20"/>
       <c r="B20" s="15" t="s">
         <v>113</v>
@@ -2677,7 +2689,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="20"/>
       <c r="B21" s="15"/>
       <c r="C21" s="6" t="s">
@@ -2697,7 +2709,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="20"/>
       <c r="B22" s="15"/>
       <c r="C22" s="6" t="s">
@@ -2717,7 +2729,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="20"/>
       <c r="B23" s="15"/>
       <c r="C23" s="6" t="s">
@@ -2737,7 +2749,7 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="20"/>
       <c r="B24" s="15"/>
       <c r="C24" s="6" t="s">
@@ -2757,7 +2769,7 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="20"/>
       <c r="B25" s="15" t="s">
         <v>118</v>
@@ -2779,7 +2791,7 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="20"/>
       <c r="B26" s="15"/>
       <c r="C26" s="6" t="s">
@@ -2799,7 +2811,7 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="20"/>
       <c r="B27" s="15"/>
       <c r="C27" s="6" t="s">
@@ -2819,7 +2831,7 @@
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="20"/>
       <c r="B28" s="15"/>
       <c r="C28" s="6" t="s">
@@ -2839,7 +2851,7 @@
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="6" t="s">
@@ -2859,7 +2871,7 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="20"/>
       <c r="B30" s="15" t="s">
         <v>126</v>
@@ -2881,7 +2893,7 @@
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="20"/>
       <c r="B31" s="15"/>
       <c r="C31" s="6" t="s">
@@ -2901,7 +2913,7 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="20"/>
       <c r="B32" s="15"/>
       <c r="C32" s="6" t="s">
@@ -2921,7 +2933,7 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="20"/>
       <c r="B33" s="15"/>
       <c r="C33" s="6" t="s">
@@ -2941,7 +2953,7 @@
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="20"/>
       <c r="B34" s="15"/>
       <c r="C34" s="6" t="s">
@@ -2961,7 +2973,7 @@
       </c>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="20"/>
       <c r="B35" s="15" t="s">
         <v>130</v>
@@ -2983,7 +2995,7 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="20"/>
       <c r="B36" s="15"/>
       <c r="C36" s="6" t="s">
@@ -3003,7 +3015,7 @@
       </c>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="20"/>
       <c r="B37" s="15"/>
       <c r="C37" s="6" t="s">
@@ -3023,7 +3035,7 @@
       </c>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="20"/>
       <c r="B38" s="15"/>
       <c r="C38" s="6" t="s">
@@ -3043,7 +3055,7 @@
       </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="20"/>
       <c r="B39" s="15"/>
       <c r="C39" s="6" t="s">
@@ -3063,7 +3075,7 @@
       </c>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="20"/>
       <c r="B40" s="15" t="s">
         <v>143</v>
@@ -3085,7 +3097,7 @@
       </c>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="20"/>
       <c r="B41" s="15"/>
       <c r="C41" s="6" t="s">
@@ -3105,7 +3117,7 @@
       </c>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="20"/>
       <c r="B42" s="15"/>
       <c r="C42" s="6" t="s">
@@ -3125,7 +3137,7 @@
       </c>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="20"/>
       <c r="B43" s="15" t="s">
         <v>144</v>
@@ -3147,7 +3159,7 @@
       </c>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="20"/>
       <c r="B44" s="15"/>
       <c r="C44" s="11" t="s">
@@ -3167,7 +3179,7 @@
       </c>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="20"/>
       <c r="B45" s="15"/>
       <c r="C45" s="11" t="s">
@@ -3187,7 +3199,7 @@
       </c>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="20"/>
       <c r="B46" s="15"/>
       <c r="C46" s="11" t="s">
@@ -3207,7 +3219,7 @@
       </c>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="20"/>
       <c r="B47" s="15"/>
       <c r="C47" s="11" t="s">
@@ -3227,7 +3239,7 @@
       </c>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="20"/>
       <c r="B48" s="15"/>
       <c r="C48" s="11" t="s">
@@ -3247,7 +3259,7 @@
       </c>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="21"/>
       <c r="B49" s="9" t="s">
         <v>155</v>
@@ -3265,7 +3277,7 @@
       </c>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="14" t="s">
         <v>25</v>
       </c>
@@ -3285,7 +3297,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="1" t="s">
         <v>11</v>
@@ -3303,7 +3315,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
         <v>146</v>
       </c>
@@ -3321,7 +3333,7 @@
       </c>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
         <v>147</v>
       </c>
@@ -3337,7 +3349,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
         <v>148</v>
       </c>
@@ -3353,7 +3365,7 @@
       <c r="G54" s="23"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
         <v>149</v>
       </c>
@@ -3398,20 +3410,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="79.25" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="21.62890625" customWidth="1"/>
+    <col min="2" max="2" width="20.3671875" customWidth="1"/>
+    <col min="3" max="3" width="79.26171875" customWidth="1"/>
+    <col min="4" max="4" width="16.734375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>79</v>
       </c>
@@ -3431,7 +3443,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -3449,7 +3461,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="26" t="s">
         <v>173</v>
       </c>
@@ -3466,7 +3478,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A4" s="28"/>
       <c r="B4" s="25"/>
       <c r="C4" s="12" t="s">
@@ -3476,7 +3488,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="28"/>
       <c r="B5" s="25"/>
       <c r="C5" s="12" t="s">
@@ -3485,8 +3497,11 @@
       <c r="G5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="28"/>
       <c r="B6" s="25" t="s">
         <v>177</v>
@@ -3498,7 +3513,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="28"/>
       <c r="B7" s="25"/>
       <c r="C7" s="12" t="s">
@@ -3511,7 +3526,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="28"/>
       <c r="B8" s="25"/>
       <c r="C8" s="12" t="s">
@@ -3521,7 +3536,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="28"/>
       <c r="B9" s="25"/>
       <c r="C9" s="12" t="s">
@@ -3534,7 +3549,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="28"/>
       <c r="B10" s="25"/>
       <c r="C10" s="12" t="s">
@@ -3547,7 +3562,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="28"/>
       <c r="B11" s="25" t="s">
         <v>180</v>
@@ -3562,7 +3577,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A12" s="28"/>
       <c r="B12" s="25"/>
       <c r="C12" s="12" t="s">
@@ -3572,7 +3587,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="28"/>
       <c r="B13" s="25" t="s">
         <v>191</v>
@@ -3587,7 +3602,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
       <c r="A14" s="28"/>
       <c r="B14" s="25"/>
       <c r="C14" s="12" t="s">
@@ -3600,7 +3615,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="28"/>
       <c r="B15" t="s">
         <v>194</v>
@@ -3611,8 +3626,11 @@
       <c r="G15" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="28"/>
       <c r="C16" s="12" t="s">
         <v>196</v>
@@ -3624,7 +3642,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="28"/>
       <c r="B17" t="s">
         <v>197</v>
@@ -3636,7 +3654,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="28"/>
       <c r="B18" s="27" t="s">
         <v>199</v>
@@ -3647,8 +3665,11 @@
       <c r="G18" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="28"/>
       <c r="B19" s="27"/>
       <c r="C19" s="12" t="s">
@@ -3661,7 +3682,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="28"/>
       <c r="B20" s="27"/>
       <c r="C20" s="12" t="s">
@@ -3677,7 +3698,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="28"/>
       <c r="B21" s="27"/>
       <c r="C21" s="12" t="s">
@@ -3686,8 +3707,11 @@
       <c r="G21" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="28"/>
       <c r="B22" s="27"/>
       <c r="C22" s="12" t="s">
@@ -3707,12 +3731,12 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/举报网站工作计划.xlsx
+++ b/举报网站工作计划.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="8010" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="总体计划" sheetId="1" r:id="rId1"/>
     <sheet name="20160220" sheetId="2" r:id="rId2"/>
     <sheet name="20160229" sheetId="3" r:id="rId3"/>
     <sheet name="20160331" sheetId="4" r:id="rId4"/>
+    <sheet name="20160420完成的BUG修复" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="292">
   <si>
     <t>举报人</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -748,90 +749,420 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报可输出（支持pdf、word、excel）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷春霞</t>
+  </si>
+  <si>
+    <t>崔剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户公司登陆界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 用户帐号目前状态，以及上次登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b) 最近的案件简报, 例如最近12个月收到举报的简报（列表方式呈现，用“举报时间”优先排列，并优先最近收到还未查看的案件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a) 最近4周收到总体举报的数量及简报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b) 最近十个用户上次登录时间及查看/处理的情况简报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加用户字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看单个用户的操作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设置的操作做成菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷春霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋，谷春霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋、谷春霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔剑，肖秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷春霞，肖秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置“公司logo”之后， “公司logo”应该体现在举报端。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>需要访问者记录（自己开发），记录IP（whois：IP对应地址，IPS服务商），时间，能够查询IP在一段时间内的访问次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举报可输出（支持pdf、word、excel）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>出现问题模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录后首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近10个用户操作情况简报没有按照时间倒序排列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>谷春霞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录后首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件的信息，点击后要能够连接到案件详情的页面查看案件详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台管理员应该能对其他公司的公司信息进行设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋，谷春霞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属公司处不能输入，尝试输入时频繁弹出窗口，提示我“请选择企业”，这里应该和前台举报时输入公司保持一致才对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索后，搜索条件被清空，应该继续保留原搜索条件，以便于可以进一步搜索（所有搜索都应该是同样的）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态中选择正常，查不出用户，因为正常的用户是“有效”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字提示可用电话搜索，那就应该显示电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型选择无用，无法查出对应用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面上方是用户管理，左侧菜单是用户设置，请保持一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增的用户无法登陆，要如何才能登录，新建的用户难道默认不是可用的吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件重新排列一下，统一的格式是一排能排下的就不要换行，一行最多显示3个查询条件，同类型的查询应放在一行。这里应该显示两行，第一行是用户类型和用户状态，第二行是所属公司和关键字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+  </si>
+  <si>
+    <t>操作日志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入时间需要输入时间段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入操作人姓名查询条件无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索关键字要支持订单号，表格中也要显示订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看举报的附件时，直接copy网址，在另一浏览器中打开，能够看到附件，说明附件访问并未有安全的考虑和权限的控制，这个和之前谈到的特性不符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>崔剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段选择同一天无法查出内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>谷春霞</t>
-  </si>
-  <si>
-    <t>崔剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户公司登陆界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a) 用户帐号目前状态，以及上次登录时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b) 最近的案件简报, 例如最近12个月收到举报的简报（列表方式呈现，用“举报时间”优先排列，并优先最近收到还未查看的案件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a) 最近4周收到总体举报的数量及简报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b) 最近十个用户上次登录时间及查看/处理的情况简报。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改用户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加用户字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看单个用户的操作日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户设置的操作做成菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段选择中，结束时间那一天的数据无法查到，查询时间段应该是开始时间的0点开始，到结束时间的24点为止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批状态无效，选择任何条件都无法查询出结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一个月无法查出当天的数据，其他两个按钮情况一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出文件中，问题1存在待替换字符${companyBranch.owner.companyName }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出文件中，最后在http链接之前有一个多余的中文冒号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻烦参考常规操作，这里有三个输入框，一个旧密码和两个新密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>肖秋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写新密码后无法修改，提示未填写密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖秋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改建议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时间排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加超链接，或者弹出窗口查看详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将公司信息维护权限放开给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议改为异步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉提示中的电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改一下文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在用户设置的操作那提供让新增用户变有效的选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照要求移动一下控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加显示案件跟踪号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加拦截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是举报状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照常规修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复BUG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -839,56 +1170,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肖秋，谷春霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖秋、谷春霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔剑，肖秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷春霞，肖秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>肖秋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置“公司logo”之后， “公司logo”应该体现在举报端。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>谷春霞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1008,7 +1295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1041,21 +1328,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1067,26 +1360,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,50 +1691,50 @@
       <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.26171875" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.1015625" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.47265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.89453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="15.1015625" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
@@ -1451,23 +1744,23 @@
       <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>20160201</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>20160219</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1484,14 +1777,14 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
@@ -1506,14 +1799,14 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
@@ -1528,14 +1821,14 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="6" t="s">
         <v>56</v>
       </c>
@@ -1550,16 +1843,16 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="6" t="s">
         <v>56</v>
       </c>
@@ -1574,14 +1867,14 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="6" t="s">
         <v>56</v>
       </c>
@@ -1596,20 +1889,20 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>20160220</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>20160226</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1624,14 +1917,14 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="6" t="s">
         <v>56</v>
       </c>
@@ -1644,30 +1937,30 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="6" t="s">
         <v>56</v>
       </c>
@@ -1680,14 +1973,14 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="6" t="s">
         <v>60</v>
       </c>
@@ -1700,16 +1993,16 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="6" t="s">
         <v>67</v>
       </c>
@@ -1722,14 +2015,14 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="13"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="6" t="s">
         <v>64</v>
       </c>
@@ -1742,20 +2035,20 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>20160227</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <v>20160305</v>
       </c>
       <c r="F16" s="6"/>
@@ -1764,166 +2057,166 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="13"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="13"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="13"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="13" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="13"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>20160306</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="13">
         <v>20160312</v>
       </c>
       <c r="F27" s="6"/>
@@ -1932,106 +2225,106 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="13"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -2040,11 +2333,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
@@ -2061,16 +2359,11 @@
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2086,15 +2379,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.62890625" customWidth="1"/>
-    <col min="2" max="2" width="44.3671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.47265625" customWidth="1"/>
-    <col min="4" max="4" width="27.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>68</v>
       </c>
@@ -2105,7 +2398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20160224</v>
       </c>
@@ -2119,7 +2412,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20160225</v>
       </c>
@@ -2133,7 +2426,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>20160226</v>
       </c>
@@ -2147,7 +2440,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2155,7 +2448,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2163,7 +2456,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2171,7 +2464,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2179,7 +2472,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2187,7 +2480,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2195,7 +2488,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2203,7 +2496,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2211,7 +2504,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2219,7 +2512,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2227,7 +2520,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2235,7 +2528,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2243,7 +2536,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2271,39 +2564,39 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.26171875" customWidth="1"/>
-    <col min="2" max="2" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.62890625" customWidth="1"/>
-    <col min="5" max="5" width="10.62890625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.47265625" customWidth="1"/>
-    <col min="8" max="8" width="9.89453125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -2316,16 +2609,16 @@
       <c r="D2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2345,9 +2638,9 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="15"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="6" t="s">
         <v>92</v>
       </c>
@@ -2365,9 +2658,9 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="15"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
         <v>85</v>
       </c>
@@ -2385,9 +2678,9 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="20"/>
-      <c r="B6" s="15"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="6" t="s">
         <v>94</v>
       </c>
@@ -2405,9 +2698,9 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="20"/>
-      <c r="B7" s="15"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
         <v>88</v>
       </c>
@@ -2425,9 +2718,9 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="20"/>
-      <c r="B8" s="15"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="6" t="s">
         <v>95</v>
       </c>
@@ -2445,9 +2738,9 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="20"/>
-      <c r="B9" s="15"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="6" t="s">
         <v>88</v>
       </c>
@@ -2465,9 +2758,9 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="20"/>
-      <c r="B10" s="15"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="6" t="s">
         <v>97</v>
       </c>
@@ -2485,9 +2778,9 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="20"/>
-      <c r="B11" s="15"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
         <v>99</v>
       </c>
@@ -2505,9 +2798,9 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="20"/>
-      <c r="B12" s="15"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="6" t="s">
         <v>100</v>
       </c>
@@ -2525,9 +2818,9 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="20"/>
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="13" t="s">
         <v>112</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2547,9 +2840,9 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
-      <c r="B14" s="15"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="6" t="s">
         <v>105</v>
       </c>
@@ -2567,9 +2860,9 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="20"/>
-      <c r="B15" s="15"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6" t="s">
         <v>106</v>
       </c>
@@ -2587,9 +2880,9 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="20"/>
-      <c r="B16" s="15"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="6" t="s">
         <v>107</v>
       </c>
@@ -2607,9 +2900,9 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="20"/>
-      <c r="B17" s="15"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="6" t="s">
         <v>108</v>
       </c>
@@ -2627,9 +2920,9 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="20"/>
-      <c r="B18" s="15"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="6" t="s">
         <v>109</v>
       </c>
@@ -2647,9 +2940,9 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="20"/>
-      <c r="B19" s="15"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="6" t="s">
         <v>111</v>
       </c>
@@ -2667,9 +2960,9 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="20"/>
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2689,9 +2982,9 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="20"/>
-      <c r="B21" s="15"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="22"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="6" t="s">
         <v>115</v>
       </c>
@@ -2709,9 +3002,9 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="20"/>
-      <c r="B22" s="15"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="6" t="s">
         <v>116</v>
       </c>
@@ -2729,9 +3022,9 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="20"/>
-      <c r="B23" s="15"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="22"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6" t="s">
         <v>124</v>
       </c>
@@ -2749,9 +3042,9 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="20"/>
-      <c r="B24" s="15"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="6" t="s">
         <v>117</v>
       </c>
@@ -2769,9 +3062,9 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="20"/>
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="13" t="s">
         <v>118</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2791,9 +3084,9 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="20"/>
-      <c r="B26" s="15"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="22"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="6" t="s">
         <v>120</v>
       </c>
@@ -2811,9 +3104,9 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="20"/>
-      <c r="B27" s="15"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="22"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="6" t="s">
         <v>121</v>
       </c>
@@ -2831,9 +3124,9 @@
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="20"/>
-      <c r="B28" s="15"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="6" t="s">
         <v>122</v>
       </c>
@@ -2851,9 +3144,9 @@
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="20"/>
-      <c r="B29" s="15"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="22"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="6" t="s">
         <v>125</v>
       </c>
@@ -2871,9 +3164,9 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="20"/>
-      <c r="B30" s="15" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="13" t="s">
         <v>126</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2893,9 +3186,9 @@
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="20"/>
-      <c r="B31" s="15"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="22"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="6" t="s">
         <v>115</v>
       </c>
@@ -2913,9 +3206,9 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="20"/>
-      <c r="B32" s="15"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="6" t="s">
         <v>128</v>
       </c>
@@ -2933,9 +3226,9 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="20"/>
-      <c r="B33" s="15"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="22"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="6" t="s">
         <v>124</v>
       </c>
@@ -2953,9 +3246,9 @@
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="20"/>
-      <c r="B34" s="15"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="22"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="6" t="s">
         <v>129</v>
       </c>
@@ -2973,9 +3266,9 @@
       </c>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="20"/>
-      <c r="B35" s="15" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="22"/>
+      <c r="B35" s="13" t="s">
         <v>130</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2995,9 +3288,9 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="20"/>
-      <c r="B36" s="15"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="22"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="6" t="s">
         <v>132</v>
       </c>
@@ -3015,9 +3308,9 @@
       </c>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="20"/>
-      <c r="B37" s="15"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="22"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="6" t="s">
         <v>133</v>
       </c>
@@ -3035,9 +3328,9 @@
       </c>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="20"/>
-      <c r="B38" s="15"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="22"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="6" t="s">
         <v>124</v>
       </c>
@@ -3055,9 +3348,9 @@
       </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="20"/>
-      <c r="B39" s="15"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="22"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="6" t="s">
         <v>129</v>
       </c>
@@ -3075,9 +3368,9 @@
       </c>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="20"/>
-      <c r="B40" s="15" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="22"/>
+      <c r="B40" s="13" t="s">
         <v>143</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -3097,9 +3390,9 @@
       </c>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="20"/>
-      <c r="B41" s="15"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="22"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="6" t="s">
         <v>135</v>
       </c>
@@ -3117,9 +3410,9 @@
       </c>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="20"/>
-      <c r="B42" s="15"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="22"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="6" t="s">
         <v>136</v>
       </c>
@@ -3137,9 +3430,9 @@
       </c>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="20"/>
-      <c r="B43" s="15" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="22"/>
+      <c r="B43" s="13" t="s">
         <v>144</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -3159,9 +3452,9 @@
       </c>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="20"/>
-      <c r="B44" s="15"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="22"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
         <v>92</v>
       </c>
@@ -3179,9 +3472,9 @@
       </c>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="20"/>
-      <c r="B45" s="15"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="22"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
         <v>138</v>
       </c>
@@ -3199,9 +3492,9 @@
       </c>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="20"/>
-      <c r="B46" s="15"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="22"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
         <v>140</v>
       </c>
@@ -3219,9 +3512,9 @@
       </c>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="20"/>
-      <c r="B47" s="15"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="22"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="11" t="s">
         <v>139</v>
       </c>
@@ -3239,9 +3532,9 @@
       </c>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="20"/>
-      <c r="B48" s="15"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="22"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="11" t="s">
         <v>141</v>
       </c>
@@ -3259,8 +3552,8 @@
       </c>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="21"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="23"/>
       <c r="B49" s="9" t="s">
         <v>155</v>
       </c>
@@ -3277,8 +3570,8 @@
       </c>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="14" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3297,8 +3590,8 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="14"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="15"/>
       <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
@@ -3315,7 +3608,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
         <v>146</v>
       </c>
@@ -3328,12 +3621,12 @@
       <c r="F52" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="18" t="s">
         <v>170</v>
       </c>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
         <v>147</v>
       </c>
@@ -3346,10 +3639,10 @@
       <c r="F53" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="23"/>
+      <c r="G53" s="19"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
         <v>148</v>
       </c>
@@ -3362,10 +3655,10 @@
       <c r="F54" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G54" s="23"/>
+      <c r="G54" s="19"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
         <v>149</v>
       </c>
@@ -3378,27 +3671,27 @@
       <c r="F55" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G55" s="24"/>
+      <c r="G55" s="20"/>
       <c r="H55" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A3:A49"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3410,40 +3703,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.62890625" customWidth="1"/>
-    <col min="2" max="2" width="20.3671875" customWidth="1"/>
-    <col min="3" max="3" width="79.26171875" customWidth="1"/>
-    <col min="4" max="4" width="16.734375" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="79.25" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
@@ -3456,12 +3749,12 @@
       <c r="D2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>173</v>
       </c>
@@ -3472,274 +3765,712 @@
         <v>175</v>
       </c>
       <c r="G3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" t="s">
         <v>212</v>
       </c>
-      <c r="H3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="28"/>
-      <c r="B4" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="12" t="s">
+      <c r="H5" t="s">
         <v>216</v>
       </c>
-      <c r="G5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="28"/>
-      <c r="B6" s="25" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28" t="s">
         <v>177</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" t="s">
         <v>186</v>
       </c>
-      <c r="G6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="28"/>
-      <c r="B7" s="25"/>
+      <c r="H6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="12" t="s">
         <v>178</v>
       </c>
       <c r="G7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="28"/>
-      <c r="B8" s="25"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="12" t="s">
         <v>179</v>
       </c>
       <c r="G8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="28"/>
-      <c r="B9" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="H8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="12" t="s">
         <v>182</v>
       </c>
       <c r="G9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="28"/>
-      <c r="B10" s="25"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="12" t="s">
         <v>183</v>
       </c>
       <c r="G10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28" t="s">
         <v>180</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>181</v>
       </c>
       <c r="G11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" t="s">
         <v>189</v>
       </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="C16" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" t="s">
         <v>184</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G20" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
         <v>206</v>
       </c>
-      <c r="H13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="28"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" t="s">
-        <v>207</v>
-      </c>
-      <c r="H14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="28"/>
-      <c r="B15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" t="s">
-        <v>207</v>
-      </c>
-      <c r="H15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="28"/>
-      <c r="C16" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="28"/>
-      <c r="B17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="28"/>
-      <c r="B18" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G18" t="s">
-        <v>207</v>
-      </c>
-      <c r="H18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="28"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="28"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="28"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="12" t="s">
+      <c r="H21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="G21" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="28"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="12" t="s">
+      <c r="G22" t="s">
         <v>204</v>
       </c>
-      <c r="G22" t="s">
-        <v>205</v>
-      </c>
       <c r="H22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="12"/>
+    <col min="2" max="2" width="35.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="12"/>
+    <col min="4" max="4" width="44.125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C24">
+      <formula1>"重要,中等,不重要"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>